--- a/biology/Médecine/Frank_Fenner/Frank_Fenner.xlsx
+++ b/biology/Médecine/Frank_Fenner/Frank_Fenner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frank John Fenner (Ballarat, 21 décembre 1914, mort le 22 novembre 2010 à Canberra en Australie[1]) est un scientifique australien dont la carrière s'est déroulée dans le domaine de la virologie. On considère en général que ses deux réalisations les plus marquantes sont l'éradication de la variole et la mise sous contrôle de la myxomatose, qui ravageait la population de lapins en Australie à la suite de l'introduction de la maladie dans le pays.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frank John Fenner (Ballarat, 21 décembre 1914, mort le 22 novembre 2010 à Canberra en Australie) est un scientifique australien dont la carrière s'est déroulée dans le domaine de la virologie. On considère en général que ses deux réalisations les plus marquantes sont l'éradication de la variole et la mise sous contrôle de la myxomatose, qui ravageait la population de lapins en Australie à la suite de l'introduction de la maladie dans le pays.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Carrière à Canberra</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après son retour en Australie en 1949, Frank Fenner est nommé comme professeur de microbiologie à la nouvelle John Curtin School of Medical Research (en), à l'université nationale australienne, à Canberra. Là, il reprend l'étude des virus, en particulier celui de la myxomatose.
 Tout au long des décennies 1940 et 1950, cette maladie avait ravagé la population de lapins en Australie. Le travail de Frank Fenner sur le virus de la myxomatose a montré qu'il entraînait la mort des lapins en 9 à 11 jours, et qu'il était mortel à 99,5 %. Du fait de l'énorme sélection naturelle ainsi créée, les quelques lapins survivants développaient une immunité à la maladie, ce qui impliquait que celle-ci n'était jamais éradiquée même après avoir entraîné une très forte baisse de la population touchée. Avant que le virus ne soit utilisé comme moyen biologique pour endiguer la prolifération des lapins en Australie, Frank Fenner, Frank Macfarlane Burnet, et Ian Clunies Ross se rendirent célèbres en s’inoculant le virus de la myxomatose, afin de prouver son innocuité pour l'homme.
@@ -544,10 +558,12 @@
           <t>Engagement en faveur du développement durable</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le professeur Fenner témoigne d'un intérêt profond pour l'environnement, et a été le premier directeur du Centre for Resources and Environmental Studies, le Centre pour l'étude des ressources et de l'environnement, appartenant à l'Institut d'études avancées à l'Université nationale australienne (1973), où il travaille jusqu'à son départ à la retraite en 1979, et qui sera rattaché en 2007 à la Fenner School of Environment and Society, l'École Fenner pour l'environnement et la société[2]. Frank Fenner était un ardent partisan d'une politique démographique en Australie qui prenne en compte développement durable et écologie.
-Lors d'un interview accordé à The Australian le 16 juin 2010, il a prédit l'extinction de l'espèce humaine, « peut-être dans les 100 années qui viennent »[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le professeur Fenner témoigne d'un intérêt profond pour l'environnement, et a été le premier directeur du Centre for Resources and Environmental Studies, le Centre pour l'étude des ressources et de l'environnement, appartenant à l'Institut d'études avancées à l'Université nationale australienne (1973), où il travaille jusqu'à son départ à la retraite en 1979, et qui sera rattaché en 2007 à la Fenner School of Environment and Society, l'École Fenner pour l'environnement et la société. Frank Fenner était un ardent partisan d'une politique démographique en Australie qui prenne en compte développement durable et écologie.
+Lors d'un interview accordé à The Australian le 16 juin 2010, il a prédit l'extinction de l'espèce humaine, « peut-être dans les 100 années qui viennent ».
 </t>
         </is>
       </c>
